--- a/biology/Zoologie/Araneus/Araneus.xlsx
+++ b/biology/Zoologie/Araneus/Araneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araneus est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araneus est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Spider Catalog                                (version 25.0, 13/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Spider Catalog                                (version 25.0, 13/02/2024) :
 Araneus abeicus Levi, 1991
 Araneus abigeatus Levi, 1975
 Araneus acolla Levi, 1991
@@ -1088,7 +1104,7 @@
 Araneus zhaoi F. Zhang &amp; C. Zhang, 2002
 Araneus zhoui Mi &amp; Wang, 2023
 Araneus zygielloides Schenkel, 1963
-Espèces fossiles selon le World Spider Catalog (version 23.5, 2023)[2] :
+Espèces fossiles selon le World Spider Catalog (version 23.5, 2023) :
 † Araneus absconditus (Scudder, 1890)
 † Araneus aethus Chang, 2004
 † Araneus beipiaoensis Chang, 2004
@@ -1141,13 +1157,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Carl Alexander Clerck en 1757. Sa validité et donc sa priorité sur Aranea Linnaeus, 1758[3] a été officialisée en 1959[4].
-Epeira[5] a été placé en synonymie par Simon en 1895[6].
-Cathaistela[7] a été placé en synonymie par Yaginuma en 1959[8].
-Amamrotypus[9], Cambridgepeira[10], Conaranea[10], Conepeira[10] et Neosconella[11] ont été placés en synonymie par Levi en 1973[12].
-Atea[13] a été placé en synonymie par Levi en 1991[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Carl Alexander Clerck en 1757. Sa validité et donc sa priorité sur Aranea Linnaeus, 1758 a été officialisée en 1959.
+Epeira a été placé en synonymie par Simon en 1895.
+Cathaistela a été placé en synonymie par Yaginuma en 1959.
+Amamrotypus, Cambridgepeira, Conaranea, Conepeira et Neosconella ont été placés en synonymie par Levi en 1973.
+Atea a été placé en synonymie par Levi en 1991.
 </t>
         </is>
       </c>
@@ -1176,7 +1194,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154 (texte intégral) (sv).</t>
         </is>
